--- a/similarities/split_global/harmonic_similarity_timestamps_115.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_115.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,714 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:30.050000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:25.260000', '0:00:52.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:06.920000', '0:00:13.460000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:21.020000', '0:00:31.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=21.02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:7', 'G:maj', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:7', 'C', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.300000', '0:00:06.820000')]</t>
+          <t>('0:00:54.760000', '0:01:00.760000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.680000', '0:00:32.500000')]</t>
+          <t>('0:00:20.769931', '0:00:26.946439')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=54.76</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-22#t=12.68']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=20.769931</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_231</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['Bb', 'C', 'F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['F', 'G', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:40.030000', '0:00:43.842000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.580000', '0:00:07.080000'), ('0:00:00.220000', '0:00:03.440000')]</t>
+          <t>('0:00:04.394943', '0:00:08.342335')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=40.03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=4.394943</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:43.340000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_46</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
+          <t>['E', 'A', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A/3', 'D/7', 'G/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:01:04.193106', '0:01:09.789115')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:01:01.257000', '0:01:04.972000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=64.193106</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=61.257</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>jaah_88</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['G:min7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000')]</t>
+          <t>('0:00:13.420000', '0:00:21.240000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+          <t>('0:00:21.900000', '0:00:24.630000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-88#t=13.42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=21.9</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:7/F#', 'G:maj', 'E:min7/G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['F:7', 'Bb', 'G:min7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:06.705328')]</t>
+          <t>('0:01:30.080000', '0:01:34.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:15.539000', '0:00:22.860000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=90.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=15.539</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_88</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:29.719863', '0:00:35.722222')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:57.700000', '0:01:05.360000')]</t>
+          <t>('0:00:16.040000', '0:00:18.720000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-282#t=29.719863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=57.7']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_35</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:7']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:02.600000', '0:00:03.800000')]</t>
+          <t>('0:00:23.400000', '0:00:31.320000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:34.550000', '0:00:49.160000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=2.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=23.4</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=34.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:59.600000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:02.460000', '0:00:17.160000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=59.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=2.46</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_192</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A:hdim7/C', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.866546', '0:00:12.917702')]</t>
+          <t>('0:00:10.420000', '0:00:15.600000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:24.240000', '0:00:30.960000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=10.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:30.128000', '0:01:39.300000')]</t>
+          <t>('0:00:00.360000', '0:00:03.020000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:19.880000')]</t>
+          <t>('0:00:46.740000', '0:00:58.460000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=90.128']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=46.74</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:19.460000', '0:01:29.810000')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.800000', '0:00:31.040000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=79.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=22.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
